--- a/assets/data/history_data.xlsx
+++ b/assets/data/history_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myprogram\certificate_exam\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B753AF12-5DB2-475F-A5E3-5C2D71364D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEC83C0-9DE5-4000-B771-592AF71F553F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8650" yWindow="2670" windowWidth="14830" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8650" yWindow="2670" windowWidth="14830" windowHeight="10060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -379,6 +379,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -386,12 +391,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC3183C-831A-4B2A-A188-2CAD00E6F4EF}">
-  <dimension ref="A1"/>
+  <dimension ref="D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>